--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03700666666666666</v>
+        <v>0.02072366666666666</v>
       </c>
       <c r="H2">
-        <v>0.11102</v>
+        <v>0.062171</v>
       </c>
       <c r="I2">
-        <v>0.05878833129464593</v>
+        <v>0.03659418775688948</v>
       </c>
       <c r="J2">
-        <v>0.05878833129464592</v>
+        <v>0.03659418775688947</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1680563333333333</v>
+        <v>0.1311436666666667</v>
       </c>
       <c r="N2">
-        <v>0.504169</v>
+        <v>0.393431</v>
       </c>
       <c r="O2">
-        <v>0.03491515448966758</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="P2">
-        <v>0.03491515448966757</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="Q2">
-        <v>0.006219204708888888</v>
+        <v>0.002717777633444444</v>
       </c>
       <c r="R2">
-        <v>0.05597284237999998</v>
+        <v>0.024459998701</v>
       </c>
       <c r="S2">
-        <v>0.002052603669342322</v>
+        <v>0.0009746649640697751</v>
       </c>
       <c r="T2">
-        <v>0.002052603669342321</v>
+        <v>0.0009746649640697748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03700666666666666</v>
+        <v>0.02072366666666666</v>
       </c>
       <c r="H3">
-        <v>0.11102</v>
+        <v>0.062171</v>
       </c>
       <c r="I3">
-        <v>0.05878833129464593</v>
+        <v>0.03659418775688948</v>
       </c>
       <c r="J3">
-        <v>0.05878833129464592</v>
+        <v>0.03659418775688947</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>0.908345</v>
       </c>
       <c r="O3">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="P3">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="Q3">
-        <v>0.01120494021111111</v>
+        <v>0.006274746332777777</v>
       </c>
       <c r="R3">
-        <v>0.1008444619</v>
+        <v>0.05647271699499999</v>
       </c>
       <c r="S3">
-        <v>0.003698109721202119</v>
+        <v>0.002250285429434792</v>
       </c>
       <c r="T3">
-        <v>0.003698109721202119</v>
+        <v>0.002250285429434792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03700666666666666</v>
+        <v>0.02072366666666666</v>
       </c>
       <c r="H4">
-        <v>0.11102</v>
+        <v>0.062171</v>
       </c>
       <c r="I4">
-        <v>0.05878833129464593</v>
+        <v>0.03659418775688948</v>
       </c>
       <c r="J4">
-        <v>0.05878833129464592</v>
+        <v>0.03659418775688947</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.950355666666666</v>
+        <v>4.009307333333333</v>
       </c>
       <c r="N4">
-        <v>11.851067</v>
+        <v>12.027922</v>
       </c>
       <c r="O4">
-        <v>0.8207205027925185</v>
+        <v>0.8142640654908683</v>
       </c>
       <c r="P4">
-        <v>0.8207205027925184</v>
+        <v>0.8142640654908684</v>
       </c>
       <c r="Q4">
-        <v>0.1461894953711111</v>
+        <v>0.08308754874022221</v>
       </c>
       <c r="R4">
-        <v>1.31570545834</v>
+        <v>0.747787938662</v>
       </c>
       <c r="S4">
-        <v>0.04824878881847496</v>
+        <v>0.02979733209626099</v>
       </c>
       <c r="T4">
-        <v>0.04824878881847495</v>
+        <v>0.02979733209626098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03700666666666666</v>
+        <v>0.02072366666666666</v>
       </c>
       <c r="H5">
-        <v>0.11102</v>
+        <v>0.062171</v>
       </c>
       <c r="I5">
-        <v>0.05878833129464593</v>
+        <v>0.03659418775688948</v>
       </c>
       <c r="J5">
-        <v>0.05878833129464592</v>
+        <v>0.03659418775688947</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3920839999999999</v>
+        <v>0.480609</v>
       </c>
       <c r="N5">
-        <v>1.176252</v>
+        <v>1.441827</v>
       </c>
       <c r="O5">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="P5">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="Q5">
-        <v>0.01450972189333333</v>
+        <v>0.009959980713</v>
       </c>
       <c r="R5">
-        <v>0.13058749704</v>
+        <v>0.089639826417</v>
       </c>
       <c r="S5">
-        <v>0.004788829085626535</v>
+        <v>0.003571905267123922</v>
       </c>
       <c r="T5">
-        <v>0.004788829085626534</v>
+        <v>0.003571905267123921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>0.690419</v>
       </c>
       <c r="I6">
-        <v>0.3655970176915705</v>
+        <v>0.4063843675817323</v>
       </c>
       <c r="J6">
-        <v>0.3655970176915704</v>
+        <v>0.4063843675817323</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1680563333333333</v>
+        <v>0.1311436666666667</v>
       </c>
       <c r="N6">
-        <v>0.504169</v>
+        <v>0.393431</v>
       </c>
       <c r="O6">
-        <v>0.03491515448966758</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="P6">
-        <v>0.03491515448966757</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="Q6">
-        <v>0.03867642853455555</v>
+        <v>0.03018135973211111</v>
       </c>
       <c r="R6">
-        <v>0.348087856811</v>
+        <v>0.271632237589</v>
       </c>
       <c r="S6">
-        <v>0.01276487635366292</v>
+        <v>0.0108238119031074</v>
       </c>
       <c r="T6">
-        <v>0.01276487635366291</v>
+        <v>0.0108238119031074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.690419</v>
       </c>
       <c r="I7">
-        <v>0.3655970176915705</v>
+        <v>0.4063843675817323</v>
       </c>
       <c r="J7">
-        <v>0.3655970176915704</v>
+        <v>0.4063843675817323</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>0.908345</v>
       </c>
       <c r="O7">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="P7">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="Q7">
         <v>0.06968207183944444</v>
@@ -883,10 +883,10 @@
         <v>0.627138646555</v>
       </c>
       <c r="S7">
-        <v>0.02299806535401411</v>
+        <v>0.02498978327363144</v>
       </c>
       <c r="T7">
-        <v>0.0229980653540141</v>
+        <v>0.02498978327363144</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.690419</v>
       </c>
       <c r="I8">
-        <v>0.3655970176915705</v>
+        <v>0.4063843675817323</v>
       </c>
       <c r="J8">
-        <v>0.3655970176915704</v>
+        <v>0.4063843675817323</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.950355666666666</v>
+        <v>4.009307333333333</v>
       </c>
       <c r="N8">
-        <v>11.851067</v>
+        <v>12.027922</v>
       </c>
       <c r="O8">
-        <v>0.8207205027925185</v>
+        <v>0.8142640654908683</v>
       </c>
       <c r="P8">
-        <v>0.8207205027925184</v>
+        <v>0.8142640654908684</v>
       </c>
       <c r="Q8">
-        <v>0.9091335363414443</v>
+        <v>0.9227006532575555</v>
       </c>
       <c r="R8">
-        <v>8.182201827072999</v>
+        <v>8.304305879318001</v>
       </c>
       <c r="S8">
-        <v>0.300052968179271</v>
+        <v>0.3309041872990368</v>
       </c>
       <c r="T8">
-        <v>0.3000529681792709</v>
+        <v>0.3309041872990368</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.690419</v>
       </c>
       <c r="I9">
-        <v>0.3655970176915705</v>
+        <v>0.4063843675817323</v>
       </c>
       <c r="J9">
-        <v>0.3655970176915704</v>
+        <v>0.4063843675817323</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3920839999999999</v>
+        <v>0.480609</v>
       </c>
       <c r="N9">
-        <v>1.176252</v>
+        <v>1.441827</v>
       </c>
       <c r="O9">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="P9">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="Q9">
-        <v>0.09023408106533332</v>
+        <v>0.110607195057</v>
       </c>
       <c r="R9">
-        <v>0.8121067295879999</v>
+        <v>0.995464755513</v>
       </c>
       <c r="S9">
-        <v>0.02978110780462247</v>
+        <v>0.03966658510595665</v>
       </c>
       <c r="T9">
-        <v>0.02978110780462247</v>
+        <v>0.03966658510595665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.05227533333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.156826</v>
+      </c>
+      <c r="I10">
+        <v>0.09230863407636922</v>
+      </c>
+      <c r="J10">
+        <v>0.0923086340763692</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G10">
-        <v>0.06496733333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.194902</v>
-      </c>
-      <c r="I10">
-        <v>0.1032062992793108</v>
-      </c>
-      <c r="J10">
-        <v>0.1032062992793108</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M10">
-        <v>0.1680563333333333</v>
+        <v>0.1311436666666667</v>
       </c>
       <c r="N10">
-        <v>0.504169</v>
+        <v>0.393431</v>
       </c>
       <c r="O10">
-        <v>0.03491515448966758</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="P10">
-        <v>0.03491515448966757</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="Q10">
-        <v>0.01091817182644444</v>
+        <v>0.006855578889555555</v>
       </c>
       <c r="R10">
-        <v>0.09826354643799999</v>
+        <v>0.06170021000599999</v>
       </c>
       <c r="S10">
-        <v>0.003603463883644004</v>
+        <v>0.002458586924051512</v>
       </c>
       <c r="T10">
-        <v>0.003603463883644003</v>
+        <v>0.002458586924051512</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.06496733333333334</v>
+        <v>0.05227533333333333</v>
       </c>
       <c r="H11">
-        <v>0.194902</v>
+        <v>0.156826</v>
       </c>
       <c r="I11">
-        <v>0.1032062992793108</v>
+        <v>0.09230863407636922</v>
       </c>
       <c r="J11">
-        <v>0.1032062992793108</v>
+        <v>0.0923086340763692</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>0.908345</v>
       </c>
       <c r="O11">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="P11">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="Q11">
-        <v>0.01967091746555556</v>
+        <v>0.01582801255222222</v>
       </c>
       <c r="R11">
-        <v>0.17703825719</v>
+        <v>0.14245211297</v>
       </c>
       <c r="S11">
-        <v>0.006492244468399707</v>
+        <v>0.005676332417952756</v>
       </c>
       <c r="T11">
-        <v>0.006492244468399706</v>
+        <v>0.005676332417952755</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06496733333333334</v>
+        <v>0.05227533333333333</v>
       </c>
       <c r="H12">
-        <v>0.194902</v>
+        <v>0.156826</v>
       </c>
       <c r="I12">
-        <v>0.1032062992793108</v>
+        <v>0.09230863407636922</v>
       </c>
       <c r="J12">
-        <v>0.1032062992793108</v>
+        <v>0.0923086340763692</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.950355666666666</v>
+        <v>4.009307333333333</v>
       </c>
       <c r="N12">
-        <v>11.851067</v>
+        <v>12.027922</v>
       </c>
       <c r="O12">
-        <v>0.8207205027925185</v>
+        <v>0.8142640654908683</v>
       </c>
       <c r="P12">
-        <v>0.8207205027925184</v>
+        <v>0.8142640654908684</v>
       </c>
       <c r="Q12">
-        <v>0.2566440733815555</v>
+        <v>0.2095878772857778</v>
       </c>
       <c r="R12">
-        <v>2.309796660433999</v>
+        <v>1.886290895572</v>
       </c>
       <c r="S12">
-        <v>0.08470352583587108</v>
+        <v>0.0751636036629333</v>
       </c>
       <c r="T12">
-        <v>0.08470352583587107</v>
+        <v>0.0751636036629333</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06496733333333334</v>
+        <v>0.05227533333333333</v>
       </c>
       <c r="H13">
-        <v>0.194902</v>
+        <v>0.156826</v>
       </c>
       <c r="I13">
-        <v>0.1032062992793108</v>
+        <v>0.09230863407636922</v>
       </c>
       <c r="J13">
-        <v>0.1032062992793108</v>
+        <v>0.0923086340763692</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3920839999999999</v>
+        <v>0.480609</v>
       </c>
       <c r="N13">
-        <v>1.176252</v>
+        <v>1.441827</v>
       </c>
       <c r="O13">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="P13">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="Q13">
-        <v>0.02547265192266666</v>
+        <v>0.025123995678</v>
       </c>
       <c r="R13">
-        <v>0.229253867304</v>
+        <v>0.226115961102</v>
       </c>
       <c r="S13">
-        <v>0.008407065091395993</v>
+        <v>0.009010111071431636</v>
       </c>
       <c r="T13">
-        <v>0.008407065091395991</v>
+        <v>0.009010111071431634</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2973763333333333</v>
+        <v>0.2631716666666666</v>
       </c>
       <c r="H14">
-        <v>0.8921289999999999</v>
+        <v>0.789515</v>
       </c>
       <c r="I14">
-        <v>0.4724083517344729</v>
+        <v>0.4647128105850091</v>
       </c>
       <c r="J14">
-        <v>0.4724083517344729</v>
+        <v>0.464712810585009</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1680563333333333</v>
+        <v>0.1311436666666667</v>
       </c>
       <c r="N14">
-        <v>0.504169</v>
+        <v>0.393431</v>
       </c>
       <c r="O14">
-        <v>0.03491515448966758</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="P14">
-        <v>0.03491515448966757</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="Q14">
-        <v>0.04997597620011111</v>
+        <v>0.03451329732944444</v>
       </c>
       <c r="R14">
-        <v>0.449783785801</v>
+        <v>0.310619675965</v>
       </c>
       <c r="S14">
-        <v>0.01649421058301834</v>
+        <v>0.01237735614848641</v>
       </c>
       <c r="T14">
-        <v>0.01649421058301834</v>
+        <v>0.01237735614848641</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2973763333333333</v>
+        <v>0.2631716666666666</v>
       </c>
       <c r="H15">
-        <v>0.8921289999999999</v>
+        <v>0.789515</v>
       </c>
       <c r="I15">
-        <v>0.4724083517344729</v>
+        <v>0.4647128105850091</v>
       </c>
       <c r="J15">
-        <v>0.4724083517344729</v>
+        <v>0.464712810585009</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>0.908345</v>
       </c>
       <c r="O15">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="P15">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="Q15">
-        <v>0.09004010183388889</v>
+        <v>0.07968355585277777</v>
       </c>
       <c r="R15">
-        <v>0.8103609165049999</v>
+        <v>0.7171520026749999</v>
       </c>
       <c r="S15">
-        <v>0.0297170863580105</v>
+        <v>0.02857657269177286</v>
       </c>
       <c r="T15">
-        <v>0.0297170863580105</v>
+        <v>0.02857657269177285</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2973763333333333</v>
+        <v>0.2631716666666666</v>
       </c>
       <c r="H16">
-        <v>0.8921289999999999</v>
+        <v>0.789515</v>
       </c>
       <c r="I16">
-        <v>0.4724083517344729</v>
+        <v>0.4647128105850091</v>
       </c>
       <c r="J16">
-        <v>0.4724083517344729</v>
+        <v>0.464712810585009</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.950355666666666</v>
+        <v>4.009307333333333</v>
       </c>
       <c r="N16">
-        <v>11.851067</v>
+        <v>12.027922</v>
       </c>
       <c r="O16">
-        <v>0.8207205027925185</v>
+        <v>0.8142640654908683</v>
       </c>
       <c r="P16">
-        <v>0.8207205027925184</v>
+        <v>0.8142640654908684</v>
       </c>
       <c r="Q16">
-        <v>1.174742283515889</v>
+        <v>1.055136093092222</v>
       </c>
       <c r="R16">
-        <v>10.572680551643</v>
+        <v>9.496224837829999</v>
       </c>
       <c r="S16">
-        <v>0.3877152199589016</v>
+        <v>0.3783989424326373</v>
       </c>
       <c r="T16">
-        <v>0.3877152199589015</v>
+        <v>0.3783989424326373</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2973763333333333</v>
+        <v>0.2631716666666666</v>
       </c>
       <c r="H17">
-        <v>0.8921289999999999</v>
+        <v>0.789515</v>
       </c>
       <c r="I17">
-        <v>0.4724083517344729</v>
+        <v>0.4647128105850091</v>
       </c>
       <c r="J17">
-        <v>0.4724083517344729</v>
+        <v>0.464712810585009</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3920839999999999</v>
+        <v>0.480609</v>
       </c>
       <c r="N17">
-        <v>1.176252</v>
+        <v>1.441827</v>
       </c>
       <c r="O17">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="P17">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="Q17">
-        <v>0.1165965022786666</v>
+        <v>0.126482671545</v>
       </c>
       <c r="R17">
-        <v>1.049368520508</v>
+        <v>1.138344043905</v>
       </c>
       <c r="S17">
-        <v>0.03848183483454257</v>
+        <v>0.04535993931211245</v>
       </c>
       <c r="T17">
-        <v>0.03848183483454256</v>
+        <v>0.04535993931211244</v>
       </c>
     </row>
   </sheetData>
